--- a/locations/A04.xlsx
+++ b/locations/A04.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://comlineukcom-my.sharepoint.com/personal/jaydip_d_comline_uk_com/Documents/CAPLOCATION/bulk_report_webapp/locations/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://comlineukcom-my.sharepoint.com/personal/jaydip_d_comline_uk_com/Documents/CAPLOCATION/Deployment/bulk_report_webapp/locations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A8052BB8-6C21-4721-A088-BE19FA228A63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F21E281C-719C-46E9-99B2-E5863A468611}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="403">
   <si>
     <t>Bay:</t>
   </si>
@@ -41,589 +41,610 @@
     <t>G</t>
   </si>
   <si>
-    <t>04021G</t>
-  </si>
-  <si>
-    <t>04022G</t>
-  </si>
-  <si>
-    <t>04041G</t>
-  </si>
-  <si>
-    <t>04042G</t>
-  </si>
-  <si>
-    <t>04061G</t>
-  </si>
-  <si>
-    <t>04062G</t>
-  </si>
-  <si>
-    <t>04081G</t>
-  </si>
-  <si>
-    <t>04082G</t>
-  </si>
-  <si>
-    <t>04101G</t>
-  </si>
-  <si>
-    <t>04102G</t>
-  </si>
-  <si>
-    <t>04121G</t>
-  </si>
-  <si>
-    <t>04122G</t>
-  </si>
-  <si>
-    <t>04141G</t>
-  </si>
-  <si>
-    <t>04142G</t>
-  </si>
-  <si>
-    <t>04161G</t>
-  </si>
-  <si>
-    <t>04162G</t>
-  </si>
-  <si>
-    <t>04181G</t>
-  </si>
-  <si>
-    <t>04182G</t>
-  </si>
-  <si>
-    <t>04204G</t>
-  </si>
-  <si>
-    <t>04221G</t>
-  </si>
-  <si>
-    <t>04222G</t>
-  </si>
-  <si>
-    <t>04241G</t>
-  </si>
-  <si>
-    <t>04242G</t>
-  </si>
-  <si>
-    <t>04261G</t>
-  </si>
-  <si>
-    <t>04262G</t>
-  </si>
-  <si>
-    <t>04281G</t>
-  </si>
-  <si>
-    <t>04282G</t>
+    <t>04272G</t>
+  </si>
+  <si>
+    <t>04271G</t>
+  </si>
+  <si>
+    <t>04252G</t>
+  </si>
+  <si>
+    <t>04251G</t>
+  </si>
+  <si>
+    <t>04232G</t>
+  </si>
+  <si>
+    <t>04231G</t>
+  </si>
+  <si>
+    <t>04212G</t>
+  </si>
+  <si>
+    <t>04211G</t>
+  </si>
+  <si>
+    <t>04192G</t>
+  </si>
+  <si>
+    <t>04191G</t>
+  </si>
+  <si>
+    <t>04172G</t>
+  </si>
+  <si>
+    <t>04171G</t>
+  </si>
+  <si>
+    <t>04152G</t>
+  </si>
+  <si>
+    <t>04151G</t>
+  </si>
+  <si>
+    <t>04132G</t>
+  </si>
+  <si>
+    <t>04131G</t>
+  </si>
+  <si>
+    <t>04112G</t>
+  </si>
+  <si>
+    <t>04111G</t>
+  </si>
+  <si>
+    <t>04092G</t>
+  </si>
+  <si>
+    <t>04091G</t>
+  </si>
+  <si>
+    <t>04072G</t>
+  </si>
+  <si>
+    <t>04071G</t>
+  </si>
+  <si>
+    <t>04052G</t>
+  </si>
+  <si>
+    <t>04051G</t>
+  </si>
+  <si>
+    <t>04032G</t>
+  </si>
+  <si>
+    <t>04031G</t>
+  </si>
+  <si>
+    <t>04012G</t>
+  </si>
+  <si>
+    <t>04011G</t>
   </si>
   <si>
     <t>F</t>
   </si>
   <si>
-    <t>04021F</t>
-  </si>
-  <si>
-    <t>04022F</t>
-  </si>
-  <si>
-    <t>04041F</t>
-  </si>
-  <si>
-    <t>04042F</t>
-  </si>
-  <si>
-    <t>04061F</t>
-  </si>
-  <si>
-    <t>04062F</t>
-  </si>
-  <si>
-    <t>04081F</t>
-  </si>
-  <si>
-    <t>04082F</t>
-  </si>
-  <si>
-    <t>04101F</t>
-  </si>
-  <si>
-    <t>04102F</t>
-  </si>
-  <si>
-    <t>04121F</t>
-  </si>
-  <si>
-    <t>04122F</t>
-  </si>
-  <si>
-    <t>04141F</t>
-  </si>
-  <si>
-    <t>04142F</t>
-  </si>
-  <si>
-    <t>04161F</t>
-  </si>
-  <si>
-    <t>04162F</t>
-  </si>
-  <si>
-    <t>04181F</t>
-  </si>
-  <si>
-    <t>04182F</t>
-  </si>
-  <si>
-    <t>04204F</t>
-  </si>
-  <si>
-    <t>04221F</t>
-  </si>
-  <si>
-    <t>04222F</t>
-  </si>
-  <si>
-    <t>04241F</t>
-  </si>
-  <si>
-    <t>04242F</t>
-  </si>
-  <si>
-    <t>04261F</t>
-  </si>
-  <si>
-    <t>04262F</t>
-  </si>
-  <si>
-    <t>04281F</t>
-  </si>
-  <si>
-    <t>04282F</t>
+    <t>04272F</t>
+  </si>
+  <si>
+    <t>04271F</t>
+  </si>
+  <si>
+    <t>04252F</t>
+  </si>
+  <si>
+    <t>04251F</t>
+  </si>
+  <si>
+    <t>04232F</t>
+  </si>
+  <si>
+    <t>04231F</t>
+  </si>
+  <si>
+    <t>04212F</t>
+  </si>
+  <si>
+    <t>04211F</t>
+  </si>
+  <si>
+    <t>04192F</t>
+  </si>
+  <si>
+    <t>04191F</t>
+  </si>
+  <si>
+    <t>04172F</t>
+  </si>
+  <si>
+    <t>04171F</t>
+  </si>
+  <si>
+    <t>04152F</t>
+  </si>
+  <si>
+    <t>04151F</t>
+  </si>
+  <si>
+    <t>04132F</t>
+  </si>
+  <si>
+    <t>04131F</t>
+  </si>
+  <si>
+    <t>04112F</t>
+  </si>
+  <si>
+    <t>04111F</t>
+  </si>
+  <si>
+    <t>04092F</t>
+  </si>
+  <si>
+    <t>04091F</t>
+  </si>
+  <si>
+    <t>04072F</t>
+  </si>
+  <si>
+    <t>04071F</t>
+  </si>
+  <si>
+    <t>04052F</t>
+  </si>
+  <si>
+    <t>04051F</t>
+  </si>
+  <si>
+    <t>04032F</t>
+  </si>
+  <si>
+    <t>04031F</t>
+  </si>
+  <si>
+    <t>04012F</t>
+  </si>
+  <si>
+    <t>04011F</t>
   </si>
   <si>
     <t>E</t>
   </si>
   <si>
-    <t>04021E</t>
-  </si>
-  <si>
-    <t>04022E</t>
-  </si>
-  <si>
-    <t>04041E</t>
-  </si>
-  <si>
-    <t>04042E</t>
-  </si>
-  <si>
-    <t>04061E</t>
-  </si>
-  <si>
-    <t>04062E</t>
-  </si>
-  <si>
-    <t>04081E</t>
-  </si>
-  <si>
-    <t>04082E</t>
-  </si>
-  <si>
-    <t>04101E</t>
-  </si>
-  <si>
-    <t>04102E</t>
-  </si>
-  <si>
-    <t>04121E</t>
-  </si>
-  <si>
-    <t>04122E</t>
-  </si>
-  <si>
-    <t>04141E</t>
-  </si>
-  <si>
-    <t>04142E</t>
-  </si>
-  <si>
-    <t>04161E</t>
-  </si>
-  <si>
-    <t>04162E</t>
-  </si>
-  <si>
-    <t>04181E</t>
-  </si>
-  <si>
-    <t>04182E</t>
-  </si>
-  <si>
-    <t>04204E</t>
-  </si>
-  <si>
-    <t>04221E</t>
-  </si>
-  <si>
-    <t>04222E</t>
-  </si>
-  <si>
-    <t>04241E</t>
-  </si>
-  <si>
-    <t>04242E</t>
-  </si>
-  <si>
-    <t>04261E</t>
-  </si>
-  <si>
-    <t>04262E</t>
-  </si>
-  <si>
-    <t>04281E</t>
-  </si>
-  <si>
-    <t>04282E</t>
+    <t>04272E</t>
+  </si>
+  <si>
+    <t>04271E</t>
+  </si>
+  <si>
+    <t>04252E</t>
+  </si>
+  <si>
+    <t>04251E</t>
+  </si>
+  <si>
+    <t>04232E</t>
+  </si>
+  <si>
+    <t>04231E</t>
+  </si>
+  <si>
+    <t>04212E</t>
+  </si>
+  <si>
+    <t>04211E</t>
+  </si>
+  <si>
+    <t>04192E</t>
+  </si>
+  <si>
+    <t>04191E</t>
+  </si>
+  <si>
+    <t>04172E</t>
+  </si>
+  <si>
+    <t>04171E</t>
+  </si>
+  <si>
+    <t>04152E</t>
+  </si>
+  <si>
+    <t>04151E</t>
+  </si>
+  <si>
+    <t>04132E</t>
+  </si>
+  <si>
+    <t>04131E</t>
+  </si>
+  <si>
+    <t>04112E</t>
+  </si>
+  <si>
+    <t>04111E</t>
+  </si>
+  <si>
+    <t>04092E</t>
+  </si>
+  <si>
+    <t>04091E</t>
+  </si>
+  <si>
+    <t>04072E</t>
+  </si>
+  <si>
+    <t>04071E</t>
+  </si>
+  <si>
+    <t>04052E</t>
+  </si>
+  <si>
+    <t>04051E</t>
+  </si>
+  <si>
+    <t>04032E</t>
+  </si>
+  <si>
+    <t>04031E</t>
+  </si>
+  <si>
+    <t>04012E</t>
+  </si>
+  <si>
+    <t>04011E</t>
   </si>
   <si>
     <t>D</t>
   </si>
   <si>
-    <t>04021D</t>
-  </si>
-  <si>
-    <t>04022D</t>
-  </si>
-  <si>
-    <t>04041D</t>
-  </si>
-  <si>
-    <t>04042D</t>
-  </si>
-  <si>
-    <t>04061D</t>
-  </si>
-  <si>
-    <t>04062D</t>
-  </si>
-  <si>
-    <t>04081D</t>
-  </si>
-  <si>
-    <t>04082D</t>
-  </si>
-  <si>
-    <t>04101D</t>
-  </si>
-  <si>
-    <t>04102D</t>
-  </si>
-  <si>
-    <t>04121D</t>
-  </si>
-  <si>
-    <t>04122D</t>
-  </si>
-  <si>
-    <t>04141D</t>
-  </si>
-  <si>
-    <t>04142D</t>
-  </si>
-  <si>
-    <t>04161D</t>
-  </si>
-  <si>
-    <t>04162D</t>
-  </si>
-  <si>
-    <t>04181D</t>
-  </si>
-  <si>
-    <t>04182D</t>
-  </si>
-  <si>
-    <t>04204D</t>
-  </si>
-  <si>
-    <t>04221D</t>
-  </si>
-  <si>
-    <t>04222D</t>
-  </si>
-  <si>
-    <t>04241D</t>
-  </si>
-  <si>
-    <t>04242D</t>
-  </si>
-  <si>
-    <t>04261D</t>
-  </si>
-  <si>
-    <t>04262D</t>
-  </si>
-  <si>
-    <t>04281D</t>
-  </si>
-  <si>
-    <t>04282D</t>
+    <t>04272D</t>
+  </si>
+  <si>
+    <t>04271D</t>
+  </si>
+  <si>
+    <t>04252D</t>
+  </si>
+  <si>
+    <t>04251D</t>
+  </si>
+  <si>
+    <t>04232D</t>
+  </si>
+  <si>
+    <t>04231D</t>
+  </si>
+  <si>
+    <t>04212D</t>
+  </si>
+  <si>
+    <t>04211D</t>
+  </si>
+  <si>
+    <t>04192D</t>
+  </si>
+  <si>
+    <t>04191D</t>
+  </si>
+  <si>
+    <t>04172D</t>
+  </si>
+  <si>
+    <t>04171D</t>
+  </si>
+  <si>
+    <t>04152D</t>
+  </si>
+  <si>
+    <t>04151D</t>
+  </si>
+  <si>
+    <t>04132D</t>
+  </si>
+  <si>
+    <t>04131D</t>
+  </si>
+  <si>
+    <t>04112D</t>
+  </si>
+  <si>
+    <t>04111D</t>
+  </si>
+  <si>
+    <t>04092D</t>
+  </si>
+  <si>
+    <t>04091D</t>
+  </si>
+  <si>
+    <t>04072D</t>
+  </si>
+  <si>
+    <t>04071D</t>
+  </si>
+  <si>
+    <t>04052D</t>
+  </si>
+  <si>
+    <t>04051D</t>
+  </si>
+  <si>
+    <t>04032D</t>
+  </si>
+  <si>
+    <t>04031D</t>
+  </si>
+  <si>
+    <t>04012D</t>
+  </si>
+  <si>
+    <t>04011D</t>
   </si>
   <si>
     <t>C</t>
   </si>
   <si>
-    <t>04021C</t>
-  </si>
-  <si>
-    <t>04022C</t>
-  </si>
-  <si>
-    <t>04041C</t>
-  </si>
-  <si>
-    <t>04042C</t>
-  </si>
-  <si>
-    <t>04061C</t>
-  </si>
-  <si>
-    <t>04062C</t>
-  </si>
-  <si>
-    <t>04081C</t>
-  </si>
-  <si>
-    <t>04082C</t>
-  </si>
-  <si>
-    <t>04101C</t>
-  </si>
-  <si>
-    <t>04102C</t>
-  </si>
-  <si>
-    <t>04121C</t>
-  </si>
-  <si>
-    <t>04122C</t>
-  </si>
-  <si>
-    <t>04141C</t>
-  </si>
-  <si>
-    <t>04142C</t>
-  </si>
-  <si>
-    <t>04161C</t>
-  </si>
-  <si>
-    <t>04162C</t>
-  </si>
-  <si>
-    <t>04181C</t>
-  </si>
-  <si>
-    <t>04182C</t>
-  </si>
-  <si>
-    <t>04204C</t>
-  </si>
-  <si>
-    <t>04221C</t>
-  </si>
-  <si>
-    <t>04222C</t>
-  </si>
-  <si>
-    <t>04241C</t>
-  </si>
-  <si>
-    <t>04242C</t>
-  </si>
-  <si>
-    <t>04261C</t>
-  </si>
-  <si>
-    <t>04262C</t>
-  </si>
-  <si>
-    <t>04281C</t>
-  </si>
-  <si>
-    <t>04282C</t>
+    <t>04272C</t>
+  </si>
+  <si>
+    <t>04271C</t>
+  </si>
+  <si>
+    <t>04252C</t>
+  </si>
+  <si>
+    <t>04251C</t>
+  </si>
+  <si>
+    <t>04232C</t>
+  </si>
+  <si>
+    <t>04231C</t>
+  </si>
+  <si>
+    <t>04212C</t>
+  </si>
+  <si>
+    <t>04211C</t>
+  </si>
+  <si>
+    <t>04192C</t>
+  </si>
+  <si>
+    <t>04191C</t>
+  </si>
+  <si>
+    <t>04172C</t>
+  </si>
+  <si>
+    <t>04171C</t>
+  </si>
+  <si>
+    <t>04152C</t>
+  </si>
+  <si>
+    <t>04151C</t>
+  </si>
+  <si>
+    <t>04132C</t>
+  </si>
+  <si>
+    <t>04131C</t>
+  </si>
+  <si>
+    <t>04112C</t>
+  </si>
+  <si>
+    <t>04111C</t>
+  </si>
+  <si>
+    <t>04092C</t>
+  </si>
+  <si>
+    <t>04091C</t>
+  </si>
+  <si>
+    <t>04072C</t>
+  </si>
+  <si>
+    <t>04071C</t>
+  </si>
+  <si>
+    <t>04052C</t>
+  </si>
+  <si>
+    <t>04051C</t>
+  </si>
+  <si>
+    <t>04032C</t>
+  </si>
+  <si>
+    <t>04031C</t>
+  </si>
+  <si>
+    <t>04012C</t>
+  </si>
+  <si>
+    <t>04011C</t>
   </si>
   <si>
     <t>B</t>
   </si>
   <si>
-    <t>04021B</t>
-  </si>
-  <si>
-    <t>04022B</t>
-  </si>
-  <si>
-    <t>04041B</t>
-  </si>
-  <si>
-    <t>04042B</t>
-  </si>
-  <si>
-    <t>04061B</t>
-  </si>
-  <si>
-    <t>04062B</t>
-  </si>
-  <si>
-    <t>04081B</t>
-  </si>
-  <si>
-    <t>04082B</t>
-  </si>
-  <si>
-    <t>04101B</t>
-  </si>
-  <si>
-    <t>04102B</t>
-  </si>
-  <si>
-    <t>04121B</t>
-  </si>
-  <si>
-    <t>04122B</t>
-  </si>
-  <si>
-    <t>04141B</t>
-  </si>
-  <si>
-    <t>04142B</t>
-  </si>
-  <si>
-    <t>04161B</t>
-  </si>
-  <si>
-    <t>04162B</t>
-  </si>
-  <si>
-    <t>04181B</t>
-  </si>
-  <si>
-    <t>04182B</t>
-  </si>
-  <si>
-    <t>04204B</t>
-  </si>
-  <si>
-    <t>04221B</t>
-  </si>
-  <si>
-    <t>04222B</t>
-  </si>
-  <si>
-    <t>04241B</t>
-  </si>
-  <si>
-    <t>04242B</t>
-  </si>
-  <si>
-    <t>04261B</t>
-  </si>
-  <si>
-    <t>04262B</t>
-  </si>
-  <si>
-    <t>04281B</t>
-  </si>
-  <si>
-    <t>04282B</t>
+    <t>04272B</t>
+  </si>
+  <si>
+    <t>04271B</t>
+  </si>
+  <si>
+    <t>04252B</t>
+  </si>
+  <si>
+    <t>04251B</t>
+  </si>
+  <si>
+    <t>04232B</t>
+  </si>
+  <si>
+    <t>04231B</t>
+  </si>
+  <si>
+    <t>04212B</t>
+  </si>
+  <si>
+    <t>04211B</t>
+  </si>
+  <si>
+    <t>04192B</t>
+  </si>
+  <si>
+    <t>04191B</t>
+  </si>
+  <si>
+    <t>04172B</t>
+  </si>
+  <si>
+    <t>04171B</t>
+  </si>
+  <si>
+    <t>04152B</t>
+  </si>
+  <si>
+    <t>04151B</t>
+  </si>
+  <si>
+    <t>04132B</t>
+  </si>
+  <si>
+    <t>04131B</t>
+  </si>
+  <si>
+    <t>04112B</t>
+  </si>
+  <si>
+    <t>04111B</t>
+  </si>
+  <si>
+    <t>04092B</t>
+  </si>
+  <si>
+    <t>04091B</t>
+  </si>
+  <si>
+    <t>04072B</t>
+  </si>
+  <si>
+    <t>04071B</t>
+  </si>
+  <si>
+    <t>04052B</t>
+  </si>
+  <si>
+    <t>04051B</t>
+  </si>
+  <si>
+    <t>04032B</t>
+  </si>
+  <si>
+    <t>04031B</t>
+  </si>
+  <si>
+    <t>04012B</t>
+  </si>
+  <si>
+    <t>04011B</t>
   </si>
   <si>
     <t>A</t>
   </si>
   <si>
-    <t>04021A</t>
-  </si>
-  <si>
-    <t>04022A</t>
-  </si>
-  <si>
-    <t>04041A</t>
-  </si>
-  <si>
-    <t>04042A</t>
-  </si>
-  <si>
-    <t>04061A</t>
-  </si>
-  <si>
-    <t>04062A</t>
-  </si>
-  <si>
-    <t>04081A</t>
-  </si>
-  <si>
-    <t>04082A</t>
-  </si>
-  <si>
-    <t>04101A</t>
-  </si>
-  <si>
-    <t>04102A</t>
-  </si>
-  <si>
-    <t>04121A</t>
-  </si>
-  <si>
-    <t>04122A</t>
-  </si>
-  <si>
-    <t>04141A</t>
-  </si>
-  <si>
-    <t>04142A</t>
-  </si>
-  <si>
-    <t>04161A</t>
-  </si>
-  <si>
-    <t>04162A</t>
-  </si>
-  <si>
-    <t>04181A</t>
-  </si>
-  <si>
-    <t>04182A</t>
-  </si>
-  <si>
-    <t>04204A</t>
-  </si>
-  <si>
-    <t>04221A</t>
-  </si>
-  <si>
-    <t>04222A</t>
-  </si>
-  <si>
-    <t>04241A</t>
-  </si>
-  <si>
-    <t>04242A</t>
-  </si>
-  <si>
-    <t>04261A</t>
-  </si>
-  <si>
-    <t>04262A</t>
-  </si>
-  <si>
-    <t>04281A</t>
-  </si>
-  <si>
-    <t>04282A</t>
+    <t>04272A</t>
+  </si>
+  <si>
+    <t>04271A</t>
+  </si>
+  <si>
+    <t>04252A</t>
+  </si>
+  <si>
+    <t>04251A</t>
+  </si>
+  <si>
+    <t>04232A</t>
+  </si>
+  <si>
+    <t>04231A</t>
+  </si>
+  <si>
+    <t>04212A</t>
+  </si>
+  <si>
+    <t>04211A</t>
+  </si>
+  <si>
+    <t>04192A</t>
+  </si>
+  <si>
+    <t>04191A</t>
+  </si>
+  <si>
+    <t>04172A</t>
+  </si>
+  <si>
+    <t>04171A</t>
+  </si>
+  <si>
+    <t>04152A</t>
+  </si>
+  <si>
+    <t>04151A</t>
+  </si>
+  <si>
+    <t>04132A</t>
+  </si>
+  <si>
+    <t>04131A</t>
+  </si>
+  <si>
+    <t>04112A</t>
+  </si>
+  <si>
+    <t>04111A</t>
+  </si>
+  <si>
+    <t>04092A</t>
+  </si>
+  <si>
+    <t>04091A</t>
+  </si>
+  <si>
+    <t>04072A</t>
+  </si>
+  <si>
+    <t>04071A</t>
+  </si>
+  <si>
+    <t>04052A</t>
+  </si>
+  <si>
+    <t>04051A</t>
+  </si>
+  <si>
+    <t>04032A</t>
+  </si>
+  <si>
+    <t>04031A</t>
+  </si>
+  <si>
+    <t>04012A</t>
+  </si>
+  <si>
+    <t>04011A</t>
   </si>
   <si>
     <t>→ Walking Path →</t>
@@ -640,592 +661,592 @@
 E</t>
   </si>
   <si>
-    <t>04272G</t>
-  </si>
-  <si>
-    <t>04271G</t>
-  </si>
-  <si>
-    <t>04252G</t>
-  </si>
-  <si>
-    <t>04251G</t>
-  </si>
-  <si>
-    <t>04232G</t>
-  </si>
-  <si>
-    <t>04231G</t>
-  </si>
-  <si>
-    <t>04212G</t>
-  </si>
-  <si>
-    <t>04211G</t>
-  </si>
-  <si>
-    <t>04192G</t>
-  </si>
-  <si>
-    <t>04191G</t>
-  </si>
-  <si>
-    <t>04172G</t>
-  </si>
-  <si>
-    <t>04171G</t>
-  </si>
-  <si>
-    <t>04152G</t>
-  </si>
-  <si>
-    <t>04151G</t>
-  </si>
-  <si>
-    <t>04132G</t>
-  </si>
-  <si>
-    <t>04131G</t>
-  </si>
-  <si>
-    <t>04112G</t>
-  </si>
-  <si>
-    <t>04111G</t>
-  </si>
-  <si>
-    <t>04092G</t>
-  </si>
-  <si>
-    <t>04091G</t>
-  </si>
-  <si>
-    <t>04072G</t>
-  </si>
-  <si>
-    <t>04071G</t>
-  </si>
-  <si>
-    <t>04052G</t>
-  </si>
-  <si>
-    <t>04051G</t>
-  </si>
-  <si>
-    <t>04032G</t>
-  </si>
-  <si>
-    <t>04031G</t>
-  </si>
-  <si>
-    <t>04012G</t>
-  </si>
-  <si>
-    <t>04011G</t>
-  </si>
-  <si>
-    <t>04272F</t>
-  </si>
-  <si>
-    <t>04271F</t>
-  </si>
-  <si>
-    <t>04252F</t>
-  </si>
-  <si>
-    <t>04251F</t>
-  </si>
-  <si>
-    <t>04232F</t>
-  </si>
-  <si>
-    <t>04231F</t>
-  </si>
-  <si>
-    <t>04212F</t>
-  </si>
-  <si>
-    <t>04211F</t>
-  </si>
-  <si>
-    <t>04192F</t>
-  </si>
-  <si>
-    <t>04191F</t>
-  </si>
-  <si>
-    <t>04172F</t>
-  </si>
-  <si>
-    <t>04171F</t>
-  </si>
-  <si>
-    <t>04152F</t>
-  </si>
-  <si>
-    <t>04151F</t>
-  </si>
-  <si>
-    <t>04132F</t>
-  </si>
-  <si>
-    <t>04131F</t>
-  </si>
-  <si>
-    <t>04112F</t>
-  </si>
-  <si>
-    <t>04111F</t>
-  </si>
-  <si>
-    <t>04092F</t>
-  </si>
-  <si>
-    <t>04091F</t>
-  </si>
-  <si>
-    <t>04072F</t>
-  </si>
-  <si>
-    <t>04071F</t>
-  </si>
-  <si>
-    <t>04052F</t>
-  </si>
-  <si>
-    <t>04051F</t>
-  </si>
-  <si>
-    <t>04032F</t>
-  </si>
-  <si>
-    <t>04031F</t>
-  </si>
-  <si>
-    <t>04012F</t>
-  </si>
-  <si>
-    <t>04011F</t>
-  </si>
-  <si>
-    <t>04272E</t>
-  </si>
-  <si>
-    <t>04271E</t>
-  </si>
-  <si>
-    <t>04252E</t>
-  </si>
-  <si>
-    <t>04251E</t>
-  </si>
-  <si>
-    <t>04232E</t>
-  </si>
-  <si>
-    <t>04231E</t>
-  </si>
-  <si>
-    <t>04212E</t>
-  </si>
-  <si>
-    <t>04211E</t>
-  </si>
-  <si>
-    <t>04192E</t>
-  </si>
-  <si>
-    <t>04191E</t>
-  </si>
-  <si>
-    <t>04172E</t>
-  </si>
-  <si>
-    <t>04171E</t>
-  </si>
-  <si>
-    <t>04152E</t>
-  </si>
-  <si>
-    <t>04151E</t>
-  </si>
-  <si>
-    <t>04132E</t>
-  </si>
-  <si>
-    <t>04131E</t>
-  </si>
-  <si>
-    <t>04112E</t>
-  </si>
-  <si>
-    <t>04111E</t>
-  </si>
-  <si>
-    <t>04092E</t>
-  </si>
-  <si>
-    <t>04091E</t>
-  </si>
-  <si>
-    <t>04072E</t>
-  </si>
-  <si>
-    <t>04071E</t>
-  </si>
-  <si>
-    <t>04052E</t>
-  </si>
-  <si>
-    <t>04051E</t>
-  </si>
-  <si>
-    <t>04032E</t>
-  </si>
-  <si>
-    <t>04031E</t>
-  </si>
-  <si>
-    <t>04012E</t>
-  </si>
-  <si>
-    <t>04011E</t>
-  </si>
-  <si>
-    <t>04272D</t>
-  </si>
-  <si>
-    <t>04271D</t>
-  </si>
-  <si>
-    <t>04252D</t>
-  </si>
-  <si>
-    <t>04251D</t>
-  </si>
-  <si>
-    <t>04232D</t>
-  </si>
-  <si>
-    <t>04231D</t>
-  </si>
-  <si>
-    <t>04212D</t>
-  </si>
-  <si>
-    <t>04211D</t>
-  </si>
-  <si>
-    <t>04192D</t>
-  </si>
-  <si>
-    <t>04191D</t>
-  </si>
-  <si>
-    <t>04172D</t>
-  </si>
-  <si>
-    <t>04171D</t>
-  </si>
-  <si>
-    <t>04152D</t>
-  </si>
-  <si>
-    <t>04151D</t>
-  </si>
-  <si>
-    <t>04132D</t>
-  </si>
-  <si>
-    <t>04131D</t>
-  </si>
-  <si>
-    <t>04112D</t>
-  </si>
-  <si>
-    <t>04111D</t>
-  </si>
-  <si>
-    <t>04092D</t>
-  </si>
-  <si>
-    <t>04091D</t>
-  </si>
-  <si>
-    <t>04072D</t>
-  </si>
-  <si>
-    <t>04071D</t>
-  </si>
-  <si>
-    <t>04052D</t>
-  </si>
-  <si>
-    <t>04051D</t>
-  </si>
-  <si>
-    <t>04032D</t>
-  </si>
-  <si>
-    <t>04031D</t>
-  </si>
-  <si>
-    <t>04012D</t>
-  </si>
-  <si>
-    <t>04011D</t>
-  </si>
-  <si>
-    <t>04272C</t>
-  </si>
-  <si>
-    <t>04271C</t>
-  </si>
-  <si>
-    <t>04252C</t>
-  </si>
-  <si>
-    <t>04251C</t>
-  </si>
-  <si>
-    <t>04232C</t>
-  </si>
-  <si>
-    <t>04231C</t>
-  </si>
-  <si>
-    <t>04212C</t>
-  </si>
-  <si>
-    <t>04211C</t>
-  </si>
-  <si>
-    <t>04192C</t>
-  </si>
-  <si>
-    <t>04191C</t>
-  </si>
-  <si>
-    <t>04172C</t>
-  </si>
-  <si>
-    <t>04171C</t>
-  </si>
-  <si>
-    <t>04152C</t>
-  </si>
-  <si>
-    <t>04151C</t>
-  </si>
-  <si>
-    <t>04132C</t>
-  </si>
-  <si>
-    <t>04131C</t>
-  </si>
-  <si>
-    <t>04112C</t>
-  </si>
-  <si>
-    <t>04111C</t>
-  </si>
-  <si>
-    <t>04092C</t>
-  </si>
-  <si>
-    <t>04091C</t>
-  </si>
-  <si>
-    <t>04072C</t>
-  </si>
-  <si>
-    <t>04071C</t>
-  </si>
-  <si>
-    <t>04052C</t>
-  </si>
-  <si>
-    <t>04051C</t>
-  </si>
-  <si>
-    <t>04032C</t>
-  </si>
-  <si>
-    <t>04031C</t>
-  </si>
-  <si>
-    <t>04012C</t>
-  </si>
-  <si>
-    <t>04011C</t>
-  </si>
-  <si>
-    <t>04272B</t>
-  </si>
-  <si>
-    <t>04271B</t>
-  </si>
-  <si>
-    <t>04252B</t>
-  </si>
-  <si>
-    <t>04251B</t>
-  </si>
-  <si>
-    <t>04232B</t>
-  </si>
-  <si>
-    <t>04231B</t>
-  </si>
-  <si>
-    <t>04212B</t>
-  </si>
-  <si>
-    <t>04211B</t>
-  </si>
-  <si>
-    <t>04192B</t>
-  </si>
-  <si>
-    <t>04191B</t>
-  </si>
-  <si>
-    <t>04172B</t>
-  </si>
-  <si>
-    <t>04171B</t>
-  </si>
-  <si>
-    <t>04152B</t>
-  </si>
-  <si>
-    <t>04151B</t>
-  </si>
-  <si>
-    <t>04132B</t>
-  </si>
-  <si>
-    <t>04131B</t>
-  </si>
-  <si>
-    <t>04112B</t>
-  </si>
-  <si>
-    <t>04111B</t>
-  </si>
-  <si>
-    <t>04092B</t>
-  </si>
-  <si>
-    <t>04091B</t>
-  </si>
-  <si>
-    <t>04072B</t>
-  </si>
-  <si>
-    <t>04071B</t>
-  </si>
-  <si>
-    <t>04052B</t>
-  </si>
-  <si>
-    <t>04051B</t>
-  </si>
-  <si>
-    <t>04032B</t>
-  </si>
-  <si>
-    <t>04031B</t>
-  </si>
-  <si>
-    <t>04012B</t>
-  </si>
-  <si>
-    <t>04011B</t>
-  </si>
-  <si>
-    <t>04272A</t>
-  </si>
-  <si>
-    <t>04271A</t>
-  </si>
-  <si>
-    <t>04252A</t>
-  </si>
-  <si>
-    <t>04251A</t>
-  </si>
-  <si>
-    <t>04232A</t>
-  </si>
-  <si>
-    <t>04231A</t>
-  </si>
-  <si>
-    <t>04212A</t>
-  </si>
-  <si>
-    <t>04211A</t>
-  </si>
-  <si>
-    <t>04192A</t>
-  </si>
-  <si>
-    <t>04191A</t>
-  </si>
-  <si>
-    <t>04172A</t>
-  </si>
-  <si>
-    <t>04171A</t>
-  </si>
-  <si>
-    <t>04152A</t>
-  </si>
-  <si>
-    <t>04151A</t>
-  </si>
-  <si>
-    <t>04132A</t>
-  </si>
-  <si>
-    <t>04131A</t>
-  </si>
-  <si>
-    <t>04112A</t>
-  </si>
-  <si>
-    <t>04111A</t>
-  </si>
-  <si>
-    <t>04092A</t>
-  </si>
-  <si>
-    <t>04091A</t>
-  </si>
-  <si>
-    <t>04072A</t>
-  </si>
-  <si>
-    <t>04071A</t>
-  </si>
-  <si>
-    <t>04052A</t>
-  </si>
-  <si>
-    <t>04051A</t>
-  </si>
-  <si>
-    <t>04032A</t>
-  </si>
-  <si>
-    <t>04031A</t>
-  </si>
-  <si>
-    <t>04012A</t>
-  </si>
-  <si>
-    <t>04011A</t>
+    <t>04021G</t>
+  </si>
+  <si>
+    <t>04022G</t>
+  </si>
+  <si>
+    <t>04041G</t>
+  </si>
+  <si>
+    <t>04042G</t>
+  </si>
+  <si>
+    <t>04061G</t>
+  </si>
+  <si>
+    <t>04062G</t>
+  </si>
+  <si>
+    <t>04081G</t>
+  </si>
+  <si>
+    <t>04082G</t>
+  </si>
+  <si>
+    <t>04101G</t>
+  </si>
+  <si>
+    <t>04102G</t>
+  </si>
+  <si>
+    <t>04121G</t>
+  </si>
+  <si>
+    <t>04122G</t>
+  </si>
+  <si>
+    <t>04141G</t>
+  </si>
+  <si>
+    <t>04142G</t>
+  </si>
+  <si>
+    <t>04161G</t>
+  </si>
+  <si>
+    <t>04162G</t>
+  </si>
+  <si>
+    <t>04181G</t>
+  </si>
+  <si>
+    <t>04182G</t>
+  </si>
+  <si>
+    <t>04221G</t>
+  </si>
+  <si>
+    <t>04222G</t>
+  </si>
+  <si>
+    <t>04241G</t>
+  </si>
+  <si>
+    <t>04242G</t>
+  </si>
+  <si>
+    <t>04261G</t>
+  </si>
+  <si>
+    <t>04262G</t>
+  </si>
+  <si>
+    <t>04281G</t>
+  </si>
+  <si>
+    <t>04282G</t>
+  </si>
+  <si>
+    <t>04021F</t>
+  </si>
+  <si>
+    <t>04022F</t>
+  </si>
+  <si>
+    <t>04041F</t>
+  </si>
+  <si>
+    <t>04042F</t>
+  </si>
+  <si>
+    <t>04061F</t>
+  </si>
+  <si>
+    <t>04062F</t>
+  </si>
+  <si>
+    <t>04081F</t>
+  </si>
+  <si>
+    <t>04082F</t>
+  </si>
+  <si>
+    <t>04101F</t>
+  </si>
+  <si>
+    <t>04102F</t>
+  </si>
+  <si>
+    <t>04121F</t>
+  </si>
+  <si>
+    <t>04122F</t>
+  </si>
+  <si>
+    <t>04141F</t>
+  </si>
+  <si>
+    <t>04142F</t>
+  </si>
+  <si>
+    <t>04161F</t>
+  </si>
+  <si>
+    <t>04162F</t>
+  </si>
+  <si>
+    <t>04181F</t>
+  </si>
+  <si>
+    <t>04182F</t>
+  </si>
+  <si>
+    <t>04221F</t>
+  </si>
+  <si>
+    <t>04222F</t>
+  </si>
+  <si>
+    <t>04241F</t>
+  </si>
+  <si>
+    <t>04242F</t>
+  </si>
+  <si>
+    <t>04261F</t>
+  </si>
+  <si>
+    <t>04262F</t>
+  </si>
+  <si>
+    <t>04281F</t>
+  </si>
+  <si>
+    <t>04282F</t>
+  </si>
+  <si>
+    <t>04021E</t>
+  </si>
+  <si>
+    <t>04022E</t>
+  </si>
+  <si>
+    <t>04041E</t>
+  </si>
+  <si>
+    <t>04042E</t>
+  </si>
+  <si>
+    <t>04061E</t>
+  </si>
+  <si>
+    <t>04062E</t>
+  </si>
+  <si>
+    <t>04081E</t>
+  </si>
+  <si>
+    <t>04082E</t>
+  </si>
+  <si>
+    <t>04101E</t>
+  </si>
+  <si>
+    <t>04102E</t>
+  </si>
+  <si>
+    <t>04121E</t>
+  </si>
+  <si>
+    <t>04122E</t>
+  </si>
+  <si>
+    <t>04141E</t>
+  </si>
+  <si>
+    <t>04142E</t>
+  </si>
+  <si>
+    <t>04161E</t>
+  </si>
+  <si>
+    <t>04162E</t>
+  </si>
+  <si>
+    <t>04181E</t>
+  </si>
+  <si>
+    <t>04182E</t>
+  </si>
+  <si>
+    <t>04221E</t>
+  </si>
+  <si>
+    <t>04222E</t>
+  </si>
+  <si>
+    <t>04241E</t>
+  </si>
+  <si>
+    <t>04242E</t>
+  </si>
+  <si>
+    <t>04261E</t>
+  </si>
+  <si>
+    <t>04262E</t>
+  </si>
+  <si>
+    <t>04281E</t>
+  </si>
+  <si>
+    <t>04282E</t>
+  </si>
+  <si>
+    <t>04021D</t>
+  </si>
+  <si>
+    <t>04022D</t>
+  </si>
+  <si>
+    <t>04041D</t>
+  </si>
+  <si>
+    <t>04042D</t>
+  </si>
+  <si>
+    <t>04061D</t>
+  </si>
+  <si>
+    <t>04062D</t>
+  </si>
+  <si>
+    <t>04081D</t>
+  </si>
+  <si>
+    <t>04082D</t>
+  </si>
+  <si>
+    <t>04101D</t>
+  </si>
+  <si>
+    <t>04102D</t>
+  </si>
+  <si>
+    <t>04121D</t>
+  </si>
+  <si>
+    <t>04122D</t>
+  </si>
+  <si>
+    <t>04141D</t>
+  </si>
+  <si>
+    <t>04142D</t>
+  </si>
+  <si>
+    <t>04161D</t>
+  </si>
+  <si>
+    <t>04162D</t>
+  </si>
+  <si>
+    <t>04181D</t>
+  </si>
+  <si>
+    <t>04182D</t>
+  </si>
+  <si>
+    <t>04221D</t>
+  </si>
+  <si>
+    <t>04222D</t>
+  </si>
+  <si>
+    <t>04241D</t>
+  </si>
+  <si>
+    <t>04242D</t>
+  </si>
+  <si>
+    <t>04261D</t>
+  </si>
+  <si>
+    <t>04262D</t>
+  </si>
+  <si>
+    <t>04281D</t>
+  </si>
+  <si>
+    <t>04282D</t>
+  </si>
+  <si>
+    <t>04021C</t>
+  </si>
+  <si>
+    <t>04022C</t>
+  </si>
+  <si>
+    <t>04041C</t>
+  </si>
+  <si>
+    <t>04042C</t>
+  </si>
+  <si>
+    <t>04061C</t>
+  </si>
+  <si>
+    <t>04062C</t>
+  </si>
+  <si>
+    <t>04081C</t>
+  </si>
+  <si>
+    <t>04082C</t>
+  </si>
+  <si>
+    <t>04101C</t>
+  </si>
+  <si>
+    <t>04102C</t>
+  </si>
+  <si>
+    <t>04121C</t>
+  </si>
+  <si>
+    <t>04122C</t>
+  </si>
+  <si>
+    <t>04141C</t>
+  </si>
+  <si>
+    <t>04142C</t>
+  </si>
+  <si>
+    <t>04161C</t>
+  </si>
+  <si>
+    <t>04162C</t>
+  </si>
+  <si>
+    <t>04181C</t>
+  </si>
+  <si>
+    <t>04182C</t>
+  </si>
+  <si>
+    <t>04221C</t>
+  </si>
+  <si>
+    <t>04222C</t>
+  </si>
+  <si>
+    <t>04241C</t>
+  </si>
+  <si>
+    <t>04242C</t>
+  </si>
+  <si>
+    <t>04261C</t>
+  </si>
+  <si>
+    <t>04262C</t>
+  </si>
+  <si>
+    <t>04281C</t>
+  </si>
+  <si>
+    <t>04282C</t>
+  </si>
+  <si>
+    <t>04021B</t>
+  </si>
+  <si>
+    <t>04022B</t>
+  </si>
+  <si>
+    <t>04041B</t>
+  </si>
+  <si>
+    <t>04042B</t>
+  </si>
+  <si>
+    <t>04061B</t>
+  </si>
+  <si>
+    <t>04062B</t>
+  </si>
+  <si>
+    <t>04081B</t>
+  </si>
+  <si>
+    <t>04082B</t>
+  </si>
+  <si>
+    <t>04101B</t>
+  </si>
+  <si>
+    <t>04102B</t>
+  </si>
+  <si>
+    <t>04121B</t>
+  </si>
+  <si>
+    <t>04122B</t>
+  </si>
+  <si>
+    <t>04141B</t>
+  </si>
+  <si>
+    <t>04142B</t>
+  </si>
+  <si>
+    <t>04161B</t>
+  </si>
+  <si>
+    <t>04162B</t>
+  </si>
+  <si>
+    <t>04181B</t>
+  </si>
+  <si>
+    <t>04182B</t>
+  </si>
+  <si>
+    <t>04221B</t>
+  </si>
+  <si>
+    <t>04222B</t>
+  </si>
+  <si>
+    <t>04241B</t>
+  </si>
+  <si>
+    <t>04242B</t>
+  </si>
+  <si>
+    <t>04261B</t>
+  </si>
+  <si>
+    <t>04262B</t>
+  </si>
+  <si>
+    <t>04281B</t>
+  </si>
+  <si>
+    <t>04282B</t>
+  </si>
+  <si>
+    <t>04021A</t>
+  </si>
+  <si>
+    <t>04022A</t>
+  </si>
+  <si>
+    <t>04041A</t>
+  </si>
+  <si>
+    <t>04042A</t>
+  </si>
+  <si>
+    <t>04061A</t>
+  </si>
+  <si>
+    <t>04062A</t>
+  </si>
+  <si>
+    <t>04081A</t>
+  </si>
+  <si>
+    <t>04082A</t>
+  </si>
+  <si>
+    <t>04101A</t>
+  </si>
+  <si>
+    <t>04102A</t>
+  </si>
+  <si>
+    <t>04121A</t>
+  </si>
+  <si>
+    <t>04122A</t>
+  </si>
+  <si>
+    <t>04141A</t>
+  </si>
+  <si>
+    <t>04142A</t>
+  </si>
+  <si>
+    <t>04161A</t>
+  </si>
+  <si>
+    <t>04162A</t>
+  </si>
+  <si>
+    <t>04181A</t>
+  </si>
+  <si>
+    <t>04182A</t>
+  </si>
+  <si>
+    <t>04221A</t>
+  </si>
+  <si>
+    <t>04222A</t>
+  </si>
+  <si>
+    <t>04241A</t>
+  </si>
+  <si>
+    <t>04242A</t>
+  </si>
+  <si>
+    <t>04261A</t>
+  </si>
+  <si>
+    <t>04262A</t>
+  </si>
+  <si>
+    <t>04281A</t>
+  </si>
+  <si>
+    <t>04282A</t>
+  </si>
+  <si>
+    <t>04201A</t>
+  </si>
+  <si>
+    <t>04202A</t>
+  </si>
+  <si>
+    <t>04201B</t>
+  </si>
+  <si>
+    <t>04201C</t>
+  </si>
+  <si>
+    <t>04201D</t>
+  </si>
+  <si>
+    <t>04201E</t>
+  </si>
+  <si>
+    <t>04201F</t>
+  </si>
+  <si>
+    <t>04201G</t>
+  </si>
+  <si>
+    <t>04202B</t>
+  </si>
+  <si>
+    <t>04202C</t>
+  </si>
+  <si>
+    <t>04202D</t>
+  </si>
+  <si>
+    <t>04202E</t>
+  </si>
+  <si>
+    <t>04202F</t>
+  </si>
+  <si>
+    <t>04202G</t>
   </si>
 </sst>
 </file>
@@ -1422,11 +1443,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1769,9 +1790,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C30" sqref="C30:AD30"/>
+      <selection pane="topRight" activeCell="AD14" sqref="AD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1935,31 +1956,31 @@
         <v>21</v>
       </c>
       <c r="V2" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="W2" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="X2" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Y2" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Z2" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AA2" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AB2" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AC2" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AD2" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.35">
@@ -1997,91 +2018,91 @@
     <row r="4" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A4" s="22"/>
       <c r="B4" s="10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N4" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="R4" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="S4" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="T4" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="U4" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V4" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="W4" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="X4" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="Y4" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="Z4" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AA4" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="AB4" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AC4" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="AD4" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.35">
@@ -2119,91 +2140,91 @@
     <row r="6" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A6" s="22"/>
       <c r="B6" s="10" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="N6" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="R6" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="S6" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="T6" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="U6" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="V6" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="W6" s="7" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="X6" s="7" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="Y6" s="7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="Z6" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="AA6" s="7" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="AB6" s="7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="AC6" s="7" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AD6" s="7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.35">
@@ -2241,91 +2262,91 @@
     <row r="8" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A8" s="22"/>
       <c r="B8" s="10" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="M8" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="N8" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="R8" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="S8" s="7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="T8" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="U8" s="7" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="V8" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="W8" s="7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="X8" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="Y8" s="7" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="Z8" s="7" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="AA8" s="7" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="AB8" s="7" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="AC8" s="7" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="AD8" s="7" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.35">
@@ -2363,91 +2384,91 @@
     <row r="10" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A10" s="22"/>
       <c r="B10" s="10" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="N10" s="7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="R10" s="7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="S10" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="T10" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="U10" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="V10" s="7" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="W10" s="7" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="X10" s="7" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="Y10" s="7" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="Z10" s="7" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="AA10" s="7" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="AB10" s="7" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="AC10" s="7" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="AD10" s="7" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.35">
@@ -2485,213 +2506,213 @@
     <row r="12" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A12" s="22"/>
       <c r="B12" s="10" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="N12" s="7" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="R12" s="7" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="S12" s="7" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="T12" s="7" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="U12" s="7" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="V12" s="7" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="W12" s="7" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="X12" s="7" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="Y12" s="7" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="Z12" s="7" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="AA12" s="7" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="AB12" s="7" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="AC12" s="7" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="AD12" s="7" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A13" s="22"/>
       <c r="B13" s="10"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18"/>
-      <c r="L13" s="18"/>
-      <c r="M13" s="18"/>
-      <c r="N13" s="18"/>
-      <c r="O13" s="18"/>
-      <c r="P13" s="18"/>
-      <c r="Q13" s="18"/>
-      <c r="R13" s="18"/>
-      <c r="S13" s="18"/>
-      <c r="T13" s="18"/>
-      <c r="U13" s="18"/>
-      <c r="V13" s="18"/>
-      <c r="W13" s="18"/>
-      <c r="X13" s="18"/>
-      <c r="Y13" s="18"/>
-      <c r="Z13" s="18"/>
-      <c r="AA13" s="18"/>
-      <c r="AB13" s="18"/>
-      <c r="AC13" s="18"/>
-      <c r="AD13" s="18"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
+      <c r="S13" s="7"/>
+      <c r="T13" s="7"/>
+      <c r="U13" s="7"/>
+      <c r="V13" s="7"/>
+      <c r="W13" s="7"/>
+      <c r="X13" s="7"/>
+      <c r="Y13" s="7"/>
+      <c r="Z13" s="7"/>
+      <c r="AA13" s="7"/>
+      <c r="AB13" s="7"/>
+      <c r="AC13" s="7"/>
+      <c r="AD13" s="7"/>
     </row>
     <row r="14" spans="1:30" s="17" customFormat="1" ht="11" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="22"/>
       <c r="B14" s="16" t="s">
-        <v>170</v>
-      </c>
-      <c r="C14" s="20" t="s">
-        <v>171</v>
-      </c>
-      <c r="D14" s="20" t="s">
-        <v>172</v>
-      </c>
-      <c r="E14" s="20" t="s">
-        <v>173</v>
-      </c>
-      <c r="F14" s="20" t="s">
-        <v>174</v>
-      </c>
-      <c r="G14" s="20" t="s">
-        <v>175</v>
-      </c>
-      <c r="H14" s="20" t="s">
         <v>176</v>
       </c>
-      <c r="I14" s="20" t="s">
+      <c r="C14" s="19" t="s">
         <v>177</v>
       </c>
-      <c r="J14" s="20" t="s">
+      <c r="D14" s="19" t="s">
         <v>178</v>
       </c>
-      <c r="K14" s="20" t="s">
+      <c r="E14" s="19" t="s">
         <v>179</v>
       </c>
-      <c r="L14" s="20" t="s">
+      <c r="F14" s="19" t="s">
         <v>180</v>
       </c>
-      <c r="M14" s="20" t="s">
+      <c r="G14" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="N14" s="20" t="s">
+      <c r="H14" s="19" t="s">
         <v>182</v>
       </c>
-      <c r="O14" s="20" t="s">
+      <c r="I14" s="19" t="s">
         <v>183</v>
       </c>
-      <c r="P14" s="20" t="s">
+      <c r="J14" s="19" t="s">
         <v>184</v>
       </c>
-      <c r="Q14" s="20" t="s">
+      <c r="K14" s="19" t="s">
         <v>185</v>
       </c>
-      <c r="R14" s="20" t="s">
+      <c r="L14" s="19" t="s">
         <v>186</v>
       </c>
-      <c r="S14" s="20" t="s">
+      <c r="M14" s="19" t="s">
         <v>187</v>
       </c>
-      <c r="T14" s="20" t="s">
+      <c r="N14" s="19" t="s">
         <v>188</v>
       </c>
-      <c r="U14" s="20" t="s">
+      <c r="O14" s="19" t="s">
         <v>189</v>
       </c>
-      <c r="V14" s="20" t="s">
-        <v>189</v>
-      </c>
-      <c r="W14" s="20" t="s">
+      <c r="P14" s="19" t="s">
         <v>190</v>
       </c>
-      <c r="X14" s="20" t="s">
+      <c r="Q14" s="19" t="s">
         <v>191</v>
       </c>
-      <c r="Y14" s="20" t="s">
+      <c r="R14" s="19" t="s">
         <v>192</v>
       </c>
-      <c r="Z14" s="20" t="s">
+      <c r="S14" s="19" t="s">
         <v>193</v>
       </c>
-      <c r="AA14" s="20" t="s">
+      <c r="T14" s="19" t="s">
         <v>194</v>
       </c>
-      <c r="AB14" s="20" t="s">
+      <c r="U14" s="19" t="s">
         <v>195</v>
       </c>
-      <c r="AC14" s="20" t="s">
+      <c r="V14" s="19" t="s">
         <v>196</v>
       </c>
-      <c r="AD14" s="20" t="s">
+      <c r="W14" s="19" t="s">
         <v>197</v>
+      </c>
+      <c r="X14" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y14" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="Z14" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="AA14" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="AB14" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="AC14" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="AD14" s="19" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="15" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -2730,88 +2751,88 @@
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="L16" s="6" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="M16" s="6" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="N16" s="6" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="O16" s="6" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="P16" s="6" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="Q16" s="6" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="R16" s="6" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="S16" s="6" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="T16" s="6" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="U16" s="6" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="V16" s="6" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="W16" s="6" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="X16" s="6" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="Y16" s="6" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="Z16" s="6" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="AA16" s="6" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="AB16" s="6" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="AC16" s="6" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="AD16" s="6" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
     </row>
     <row r="17" spans="1:30" x14ac:dyDescent="0.35">
@@ -2906,94 +2927,94 @@
     </row>
     <row r="18" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A18" s="21" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="B18" s="12" t="s">
         <v>2</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="I18" s="11" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="J18" s="11" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="K18" s="11" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="L18" s="11" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="M18" s="11" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="N18" s="11" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="O18" s="11" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="P18" s="11" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="Q18" s="11" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="R18" s="11" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="S18" s="11" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="T18" s="11" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="U18" s="11" t="s">
-        <v>218</v>
+        <v>396</v>
       </c>
       <c r="V18" s="11" t="s">
-        <v>219</v>
+        <v>402</v>
       </c>
       <c r="W18" s="11" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="X18" s="11" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="Y18" s="11" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="Z18" s="11" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="AA18" s="11" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="AB18" s="11" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="AC18" s="11" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="AD18" s="11" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
     </row>
     <row r="19" spans="1:30" x14ac:dyDescent="0.35">
@@ -3031,91 +3052,91 @@
     <row r="20" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A20" s="22"/>
       <c r="B20" s="12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="I20" s="11" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="J20" s="11" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="K20" s="11" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="L20" s="11" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="M20" s="11" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="N20" s="11" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="O20" s="11" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="P20" s="11" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="Q20" s="11" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="R20" s="11" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="S20" s="11" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="T20" s="11" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="U20" s="11" t="s">
-        <v>246</v>
+        <v>395</v>
       </c>
       <c r="V20" s="11" t="s">
-        <v>247</v>
+        <v>401</v>
       </c>
       <c r="W20" s="11" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="X20" s="11" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Y20" s="11" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Z20" s="11" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="AA20" s="11" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="AB20" s="11" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="AC20" s="11" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="AD20" s="11" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="21" spans="1:30" x14ac:dyDescent="0.35">
@@ -3153,91 +3174,91 @@
     <row r="22" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A22" s="22"/>
       <c r="B22" s="12" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="I22" s="11" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="J22" s="11" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="K22" s="11" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="L22" s="11" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="M22" s="11" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="N22" s="11" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="O22" s="11" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="P22" s="11" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="Q22" s="11" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="R22" s="11" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="S22" s="11" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="T22" s="11" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="U22" s="11" t="s">
-        <v>274</v>
+        <v>394</v>
       </c>
       <c r="V22" s="11" t="s">
-        <v>275</v>
+        <v>400</v>
       </c>
       <c r="W22" s="11" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="X22" s="11" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Y22" s="11" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Z22" s="11" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AA22" s="11" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AB22" s="11" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AC22" s="11" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AD22" s="11" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="23" spans="1:30" x14ac:dyDescent="0.35">
@@ -3275,91 +3296,91 @@
     <row r="24" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A24" s="22"/>
       <c r="B24" s="12" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="G24" s="11" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="I24" s="11" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="J24" s="11" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="K24" s="11" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="L24" s="11" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M24" s="11" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="N24" s="11" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="O24" s="11" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="P24" s="11" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q24" s="11" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="R24" s="11" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="S24" s="11" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T24" s="11" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="U24" s="11" t="s">
-        <v>302</v>
+        <v>393</v>
       </c>
       <c r="V24" s="11" t="s">
+        <v>399</v>
+      </c>
+      <c r="W24" s="11" t="s">
         <v>303</v>
       </c>
-      <c r="W24" s="11" t="s">
+      <c r="X24" s="11" t="s">
         <v>304</v>
       </c>
-      <c r="X24" s="11" t="s">
+      <c r="Y24" s="11" t="s">
         <v>305</v>
       </c>
-      <c r="Y24" s="11" t="s">
+      <c r="Z24" s="11" t="s">
         <v>306</v>
       </c>
-      <c r="Z24" s="11" t="s">
+      <c r="AA24" s="11" t="s">
         <v>307</v>
       </c>
-      <c r="AA24" s="11" t="s">
+      <c r="AB24" s="11" t="s">
         <v>308</v>
       </c>
-      <c r="AB24" s="11" t="s">
+      <c r="AC24" s="11" t="s">
         <v>309</v>
       </c>
-      <c r="AC24" s="11" t="s">
+      <c r="AD24" s="11" t="s">
         <v>310</v>
-      </c>
-      <c r="AD24" s="11" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="25" spans="1:30" x14ac:dyDescent="0.35">
@@ -3397,91 +3418,91 @@
     <row r="26" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A26" s="22"/>
       <c r="B26" s="12" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C26" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="D26" s="4" t="s">
         <v>312</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="E26" s="11" t="s">
         <v>313</v>
       </c>
-      <c r="E26" s="11" t="s">
+      <c r="F26" s="11" t="s">
         <v>314</v>
       </c>
-      <c r="F26" s="11" t="s">
+      <c r="G26" s="11" t="s">
         <v>315</v>
       </c>
-      <c r="G26" s="11" t="s">
+      <c r="H26" s="11" t="s">
         <v>316</v>
       </c>
-      <c r="H26" s="11" t="s">
+      <c r="I26" s="11" t="s">
         <v>317</v>
       </c>
-      <c r="I26" s="11" t="s">
+      <c r="J26" s="11" t="s">
         <v>318</v>
       </c>
-      <c r="J26" s="11" t="s">
+      <c r="K26" s="11" t="s">
         <v>319</v>
       </c>
-      <c r="K26" s="11" t="s">
+      <c r="L26" s="11" t="s">
         <v>320</v>
       </c>
-      <c r="L26" s="11" t="s">
+      <c r="M26" s="11" t="s">
         <v>321</v>
       </c>
-      <c r="M26" s="11" t="s">
+      <c r="N26" s="11" t="s">
         <v>322</v>
       </c>
-      <c r="N26" s="11" t="s">
+      <c r="O26" s="11" t="s">
         <v>323</v>
       </c>
-      <c r="O26" s="11" t="s">
+      <c r="P26" s="11" t="s">
         <v>324</v>
       </c>
-      <c r="P26" s="11" t="s">
+      <c r="Q26" s="11" t="s">
         <v>325</v>
       </c>
-      <c r="Q26" s="11" t="s">
+      <c r="R26" s="11" t="s">
         <v>326</v>
       </c>
-      <c r="R26" s="11" t="s">
+      <c r="S26" s="11" t="s">
         <v>327</v>
       </c>
-      <c r="S26" s="11" t="s">
+      <c r="T26" s="11" t="s">
         <v>328</v>
       </c>
-      <c r="T26" s="11" t="s">
+      <c r="U26" s="11" t="s">
+        <v>392</v>
+      </c>
+      <c r="V26" s="11" t="s">
+        <v>398</v>
+      </c>
+      <c r="W26" s="11" t="s">
         <v>329</v>
       </c>
-      <c r="U26" s="11" t="s">
+      <c r="X26" s="11" t="s">
         <v>330</v>
       </c>
-      <c r="V26" s="11" t="s">
+      <c r="Y26" s="11" t="s">
         <v>331</v>
       </c>
-      <c r="W26" s="11" t="s">
+      <c r="Z26" s="11" t="s">
         <v>332</v>
       </c>
-      <c r="X26" s="11" t="s">
+      <c r="AA26" s="11" t="s">
         <v>333</v>
       </c>
-      <c r="Y26" s="11" t="s">
+      <c r="AB26" s="11" t="s">
         <v>334</v>
       </c>
-      <c r="Z26" s="11" t="s">
+      <c r="AC26" s="11" t="s">
         <v>335</v>
       </c>
-      <c r="AA26" s="11" t="s">
+      <c r="AD26" s="11" t="s">
         <v>336</v>
-      </c>
-      <c r="AB26" s="11" t="s">
-        <v>337</v>
-      </c>
-      <c r="AC26" s="11" t="s">
-        <v>338</v>
-      </c>
-      <c r="AD26" s="11" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="27" spans="1:30" x14ac:dyDescent="0.35">
@@ -3519,213 +3540,213 @@
     <row r="28" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A28" s="22"/>
       <c r="B28" s="12" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="C28" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>339</v>
+      </c>
+      <c r="F28" s="11" t="s">
         <v>340</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="G28" s="11" t="s">
         <v>341</v>
       </c>
-      <c r="E28" s="11" t="s">
+      <c r="H28" s="11" t="s">
         <v>342</v>
       </c>
-      <c r="F28" s="11" t="s">
+      <c r="I28" s="11" t="s">
         <v>343</v>
       </c>
-      <c r="G28" s="11" t="s">
+      <c r="J28" s="11" t="s">
         <v>344</v>
       </c>
-      <c r="H28" s="11" t="s">
+      <c r="K28" s="11" t="s">
         <v>345</v>
       </c>
-      <c r="I28" s="11" t="s">
+      <c r="L28" s="11" t="s">
         <v>346</v>
       </c>
-      <c r="J28" s="11" t="s">
+      <c r="M28" s="11" t="s">
         <v>347</v>
       </c>
-      <c r="K28" s="11" t="s">
+      <c r="N28" s="11" t="s">
         <v>348</v>
       </c>
-      <c r="L28" s="11" t="s">
+      <c r="O28" s="11" t="s">
         <v>349</v>
       </c>
-      <c r="M28" s="11" t="s">
+      <c r="P28" s="11" t="s">
         <v>350</v>
       </c>
-      <c r="N28" s="11" t="s">
+      <c r="Q28" s="11" t="s">
         <v>351</v>
       </c>
-      <c r="O28" s="11" t="s">
+      <c r="R28" s="11" t="s">
         <v>352</v>
       </c>
-      <c r="P28" s="11" t="s">
+      <c r="S28" s="11" t="s">
         <v>353</v>
       </c>
-      <c r="Q28" s="11" t="s">
+      <c r="T28" s="11" t="s">
         <v>354</v>
       </c>
-      <c r="R28" s="11" t="s">
+      <c r="U28" s="11" t="s">
+        <v>391</v>
+      </c>
+      <c r="V28" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="W28" s="11" t="s">
         <v>355</v>
       </c>
-      <c r="S28" s="11" t="s">
+      <c r="X28" s="11" t="s">
         <v>356</v>
       </c>
-      <c r="T28" s="11" t="s">
+      <c r="Y28" s="11" t="s">
         <v>357</v>
       </c>
-      <c r="U28" s="11" t="s">
+      <c r="Z28" s="11" t="s">
         <v>358</v>
       </c>
-      <c r="V28" s="11" t="s">
+      <c r="AA28" s="11" t="s">
         <v>359</v>
       </c>
-      <c r="W28" s="11" t="s">
+      <c r="AB28" s="11" t="s">
         <v>360</v>
       </c>
-      <c r="X28" s="11" t="s">
+      <c r="AC28" s="11" t="s">
         <v>361</v>
       </c>
-      <c r="Y28" s="11" t="s">
+      <c r="AD28" s="11" t="s">
         <v>362</v>
-      </c>
-      <c r="Z28" s="11" t="s">
-        <v>363</v>
-      </c>
-      <c r="AA28" s="11" t="s">
-        <v>364</v>
-      </c>
-      <c r="AB28" s="11" t="s">
-        <v>365</v>
-      </c>
-      <c r="AC28" s="11" t="s">
-        <v>366</v>
-      </c>
-      <c r="AD28" s="11" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="29" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A29" s="22"/>
       <c r="B29" s="12"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="19"/>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="19"/>
-      <c r="K29" s="19"/>
-      <c r="L29" s="19"/>
-      <c r="M29" s="19"/>
-      <c r="N29" s="19"/>
-      <c r="O29" s="19"/>
-      <c r="P29" s="19"/>
-      <c r="Q29" s="19"/>
-      <c r="R29" s="19"/>
-      <c r="S29" s="19"/>
-      <c r="T29" s="19"/>
-      <c r="U29" s="19"/>
-      <c r="V29" s="19"/>
-      <c r="W29" s="19"/>
-      <c r="X29" s="19"/>
-      <c r="Y29" s="19"/>
-      <c r="Z29" s="19"/>
-      <c r="AA29" s="19"/>
-      <c r="AB29" s="19"/>
-      <c r="AC29" s="19"/>
-      <c r="AD29" s="19"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="18"/>
+      <c r="K29" s="18"/>
+      <c r="L29" s="18"/>
+      <c r="M29" s="18"/>
+      <c r="N29" s="18"/>
+      <c r="O29" s="18"/>
+      <c r="P29" s="18"/>
+      <c r="Q29" s="18"/>
+      <c r="R29" s="18"/>
+      <c r="S29" s="18"/>
+      <c r="T29" s="18"/>
+      <c r="U29" s="18"/>
+      <c r="V29" s="18"/>
+      <c r="W29" s="18"/>
+      <c r="X29" s="18"/>
+      <c r="Y29" s="18"/>
+      <c r="Z29" s="18"/>
+      <c r="AA29" s="18"/>
+      <c r="AB29" s="18"/>
+      <c r="AC29" s="18"/>
+      <c r="AD29" s="18"/>
     </row>
     <row r="30" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A30" s="22"/>
       <c r="B30" s="12" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="C30" s="20" t="s">
+        <v>363</v>
+      </c>
+      <c r="D30" s="20" t="s">
+        <v>364</v>
+      </c>
+      <c r="E30" s="20" t="s">
+        <v>365</v>
+      </c>
+      <c r="F30" s="20" t="s">
+        <v>366</v>
+      </c>
+      <c r="G30" s="20" t="s">
+        <v>367</v>
+      </c>
+      <c r="H30" s="20" t="s">
         <v>368</v>
       </c>
-      <c r="D30" s="20" t="s">
+      <c r="I30" s="20" t="s">
         <v>369</v>
       </c>
-      <c r="E30" s="20" t="s">
+      <c r="J30" s="20" t="s">
         <v>370</v>
       </c>
-      <c r="F30" s="20" t="s">
+      <c r="K30" s="20" t="s">
         <v>371</v>
       </c>
-      <c r="G30" s="20" t="s">
+      <c r="L30" s="20" t="s">
         <v>372</v>
       </c>
-      <c r="H30" s="20" t="s">
+      <c r="M30" s="20" t="s">
         <v>373</v>
       </c>
-      <c r="I30" s="20" t="s">
+      <c r="N30" s="20" t="s">
         <v>374</v>
       </c>
-      <c r="J30" s="20" t="s">
+      <c r="O30" s="20" t="s">
         <v>375</v>
       </c>
-      <c r="K30" s="20" t="s">
+      <c r="P30" s="20" t="s">
         <v>376</v>
       </c>
-      <c r="L30" s="20" t="s">
+      <c r="Q30" s="20" t="s">
         <v>377</v>
       </c>
-      <c r="M30" s="20" t="s">
+      <c r="R30" s="20" t="s">
         <v>378</v>
       </c>
-      <c r="N30" s="20" t="s">
+      <c r="S30" s="20" t="s">
         <v>379</v>
       </c>
-      <c r="O30" s="20" t="s">
+      <c r="T30" s="20" t="s">
         <v>380</v>
       </c>
-      <c r="P30" s="20" t="s">
+      <c r="U30" s="20" t="s">
+        <v>389</v>
+      </c>
+      <c r="V30" s="20" t="s">
+        <v>390</v>
+      </c>
+      <c r="W30" s="20" t="s">
         <v>381</v>
       </c>
-      <c r="Q30" s="20" t="s">
+      <c r="X30" s="20" t="s">
         <v>382</v>
       </c>
-      <c r="R30" s="20" t="s">
+      <c r="Y30" s="20" t="s">
         <v>383</v>
       </c>
-      <c r="S30" s="20" t="s">
+      <c r="Z30" s="20" t="s">
         <v>384</v>
       </c>
-      <c r="T30" s="20" t="s">
+      <c r="AA30" s="20" t="s">
         <v>385</v>
       </c>
-      <c r="U30" s="20" t="s">
+      <c r="AB30" s="20" t="s">
         <v>386</v>
       </c>
-      <c r="V30" s="20" t="s">
+      <c r="AC30" s="20" t="s">
         <v>387</v>
       </c>
-      <c r="W30" s="20" t="s">
+      <c r="AD30" s="20" t="s">
         <v>388</v>
-      </c>
-      <c r="X30" s="20" t="s">
-        <v>389</v>
-      </c>
-      <c r="Y30" s="20" t="s">
-        <v>390</v>
-      </c>
-      <c r="Z30" s="20" t="s">
-        <v>391</v>
-      </c>
-      <c r="AA30" s="20" t="s">
-        <v>392</v>
-      </c>
-      <c r="AB30" s="20" t="s">
-        <v>393</v>
-      </c>
-      <c r="AC30" s="20" t="s">
-        <v>394</v>
-      </c>
-      <c r="AD30" s="20" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="31" spans="1:30" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
